--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_5_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_5_genetic_schedule.xlsx
@@ -520,215 +520,220 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
+          <t>IB 420 - International Business
+3C
+Room 215</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="50" customHeight="1">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>8:30 AM - 9:00 AM</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n"/>
+    </row>
+    <row r="4" ht="50" customHeight="1">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>9:00 AM - 9:30 AM</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="n"/>
+    </row>
+    <row r="5" ht="50" customHeight="1">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>9:30 AM - 10:00 AM</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n"/>
+    </row>
+    <row r="6" ht="50" customHeight="1">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>10:00 AM - 10:30 AM</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>DM 406 - Discrete Mathematics
+3A
+Room 201</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="50" customHeight="1">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>10:30 AM - 11:00 AM</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n"/>
+    </row>
+    <row r="8" ht="50" customHeight="1">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>11:00 AM - 11:30 AM</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>MU 434 - Music Composition
+3E
+Room 230</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n"/>
+    </row>
+    <row r="9" ht="50" customHeight="1">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>11:30 AM - 12:00 PM</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="n"/>
+      <c r="E9" s="2" t="n"/>
+    </row>
+    <row r="10" ht="50" customHeight="1">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>12:00 PM - 12:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="50" customHeight="1">
+      <c r="A11" s="2" t="inlineStr">
+        <is>
+          <t>12:30 PM - 1:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="50" customHeight="1">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>1:00 PM - 1:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="50" customHeight="1">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>1:30 PM - 2:00 PM</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>BC 308 - Business Communication
+2C
+Room 150</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="50" customHeight="1">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>2:00 PM - 2:30 PM</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="n"/>
+    </row>
+    <row r="15" ht="50" customHeight="1">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>2:30 PM - 3:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="50" customHeight="1">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>3:00 PM - 3:30 PM</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
           <t>AR 206 - Art Studio
 2E
 Room 167</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="50" customHeight="1">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>8:30 AM - 9:00 AM</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="n"/>
-    </row>
-    <row r="4" ht="50" customHeight="1">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>9:00 AM - 9:30 AM</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="n"/>
-    </row>
-    <row r="5" ht="50" customHeight="1">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>9:30 AM - 10:00 AM</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="n"/>
-    </row>
-    <row r="6" ht="50" customHeight="1">
-      <c r="A6" s="2" t="inlineStr">
-        <is>
-          <t>10:00 AM - 10:30 AM</t>
-        </is>
-      </c>
-      <c r="B6" s="2" t="n"/>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>DM 406 - Discrete Mathematics
-3A
-Room 201</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" ht="50" customHeight="1">
-      <c r="A7" s="2" t="inlineStr">
-        <is>
-          <t>10:30 AM - 11:00 AM</t>
-        </is>
-      </c>
-      <c r="B7" s="2" t="inlineStr">
+    <row r="17" ht="50" customHeight="1">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>3:30 PM - 4:00 PM</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="n"/>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>EN 322 - English
+2A
+Room 136</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="50" customHeight="1">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>4:00 PM - 4:30 PM</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="n"/>
+      <c r="F18" s="2" t="n"/>
+    </row>
+    <row r="19" ht="50" customHeight="1">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>4:30 PM - 5:00 PM</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="n"/>
+      <c r="F19" s="2" t="n"/>
+    </row>
+    <row r="20" ht="50" customHeight="1">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>5:00 PM - 5:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="21" ht="50" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>5:30 PM - 6:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="50" customHeight="1">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>6:00 PM - 6:30 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="50" customHeight="1">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>6:30 PM - 7:00 PM</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="50" customHeight="1">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>7:00 PM - 7:30 PM</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
         <is>
           <t>MU 434 - Music Composition
 3E
 Room 233</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n"/>
-    </row>
-    <row r="8" ht="50" customHeight="1">
-      <c r="A8" s="2" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:30 AM</t>
-        </is>
-      </c>
-      <c r="B8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-    </row>
-    <row r="9" ht="50" customHeight="1">
-      <c r="A9" s="2" t="inlineStr">
-        <is>
-          <t>11:30 AM - 12:00 PM</t>
-        </is>
-      </c>
-      <c r="B9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-    </row>
-    <row r="10" ht="50" customHeight="1">
-      <c r="A10" s="2" t="inlineStr">
-        <is>
-          <t>12:00 PM - 12:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="50" customHeight="1">
-      <c r="A11" s="2" t="inlineStr">
-        <is>
-          <t>12:30 PM - 1:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="50" customHeight="1">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>1:00 PM - 1:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="13" ht="50" customHeight="1">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>1:30 PM - 2:00 PM</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>EN 322 - English
-2A
-Room 136</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="50" customHeight="1">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>2:00 PM - 2:30 PM</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="n"/>
-    </row>
-    <row r="15" ht="50" customHeight="1">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>2:30 PM - 3:00 PM</t>
-        </is>
-      </c>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>BC 308 - Business Communication
-2C
-Room 150</t>
-        </is>
-      </c>
-    </row>
-    <row r="16" ht="50" customHeight="1">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>3:00 PM - 3:30 PM</t>
-        </is>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>IB 420 - International Business
-3C
-Room 215</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="n"/>
-    </row>
-    <row r="17" ht="50" customHeight="1">
-      <c r="A17" s="2" t="inlineStr">
-        <is>
-          <t>3:30 PM - 4:00 PM</t>
-        </is>
-      </c>
-      <c r="B17" s="2" t="n"/>
-    </row>
-    <row r="18" ht="50" customHeight="1">
-      <c r="A18" s="2" t="inlineStr">
-        <is>
-          <t>4:00 PM - 4:30 PM</t>
-        </is>
-      </c>
-      <c r="B18" s="2" t="n"/>
-    </row>
-    <row r="19" ht="50" customHeight="1">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>4:30 PM - 5:00 PM</t>
-        </is>
-      </c>
-      <c r="B19" s="2" t="n"/>
-    </row>
-    <row r="20" ht="50" customHeight="1">
-      <c r="A20" s="2" t="inlineStr">
-        <is>
-          <t>5:00 PM - 5:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="21" ht="50" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>5:30 PM - 6:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="50" customHeight="1">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>6:00 PM - 6:30 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="50" customHeight="1">
-      <c r="A23" s="2" t="inlineStr">
-        <is>
-          <t>6:30 PM - 7:00 PM</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="50" customHeight="1">
-      <c r="A24" s="2" t="inlineStr">
-        <is>
-          <t>7:00 PM - 7:30 PM</t>
-        </is>
-      </c>
     </row>
     <row r="25" ht="50" customHeight="1">
       <c r="A25" s="2" t="inlineStr">
@@ -736,13 +741,7 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="inlineStr">
-        <is>
-          <t>AR 206 - Art Studio
-2E
-Room 168</t>
-        </is>
-      </c>
+      <c r="B25" s="2" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -761,14 +760,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B24:B26"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B5:B6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/with logs for unschedule with saturday sunday/excel_schedules/employee_5_genetic_schedule.xlsx
+++ b/with logs for unschedule with saturday sunday/excel_schedules/employee_5_genetic_schedule.xlsx
@@ -26,7 +26,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="11">
     <fill>
       <patternFill/>
     </fill>
@@ -37,6 +37,54 @@
       <patternFill patternType="solid">
         <fgColor rgb="00E0E0E0"/>
         <bgColor rgb="00E0E0E0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFB6C1"/>
+        <bgColor rgb="00FFB6C1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00ADD8E6"/>
+        <bgColor rgb="00ADD8E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0090EE90"/>
+        <bgColor rgb="0090EE90"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFD700"/>
+        <bgColor rgb="00FFD700"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFA07A"/>
+        <bgColor rgb="00FFA07A"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0020B2AA"/>
+        <bgColor rgb="0020B2AA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="009370DB"/>
+        <bgColor rgb="009370DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F08080"/>
+        <bgColor rgb="00F08080"/>
       </patternFill>
     </fill>
   </fills>
@@ -79,12 +127,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -518,11 +590,36 @@
           <t>8:00 AM - 8:30 AM</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>IB 420 - International Business
-3C
-Room 215</t>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>B2 ITE 111 - Introduction to Computing
+1B
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="D2" s="4" t="inlineStr">
+        <is>
+          <t>C1 IS 213 - IT Infrastructure &amp; Network Technologies
+2C
+Room 303
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="E2" s="5" t="inlineStr">
+        <is>
+          <t>A2 ITE 111 - Introduction to Computing
+1A
+Room 208
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="F2" s="6" t="inlineStr">
+        <is>
+          <t>B1 ITE 111 - Introduction to Computing
+1B
+Room 303
+Emp: 5</t>
         </is>
       </c>
     </row>
@@ -532,7 +629,10 @@
           <t>8:30 AM - 9:00 AM</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="3" t="n"/>
+      <c r="D3" s="4" t="n"/>
+      <c r="E3" s="5" t="n"/>
+      <c r="F3" s="6" t="n"/>
     </row>
     <row r="4" ht="50" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
@@ -540,7 +640,10 @@
           <t>9:00 AM - 9:30 AM</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n"/>
+      <c r="C4" s="3" t="n"/>
+      <c r="D4" s="4" t="n"/>
+      <c r="E4" s="5" t="n"/>
+      <c r="F4" s="6" t="n"/>
     </row>
     <row r="5" ht="50" customHeight="1">
       <c r="A5" s="2" t="inlineStr">
@@ -548,7 +651,24 @@
           <t>9:30 AM - 10:00 AM</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n"/>
+      <c r="B5" s="7" t="inlineStr">
+        <is>
+          <t>A1 ITE 111 - Introduction to Computing
+1A
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="n"/>
+      <c r="E5" s="6" t="inlineStr">
+        <is>
+          <t>B1 ITE 111 - Introduction to Computing
+1B
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n"/>
     </row>
     <row r="6" ht="50" customHeight="1">
       <c r="A6" s="2" t="inlineStr">
@@ -556,11 +676,22 @@
           <t>10:00 AM - 10:30 AM</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>DM 406 - Discrete Mathematics
-3A
-Room 201</t>
+      <c r="B6" s="7" t="n"/>
+      <c r="D6" s="7" t="inlineStr">
+        <is>
+          <t>A1 ITE 111 - Introduction to Computing
+1A
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="E6" s="6" t="n"/>
+      <c r="F6" s="7" t="inlineStr">
+        <is>
+          <t>A1 ITE 111 - Introduction to Computing
+1A
+Room 305
+Emp: 5</t>
         </is>
       </c>
     </row>
@@ -570,7 +701,10 @@
           <t>10:30 AM - 11:00 AM</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n"/>
+      <c r="B7" s="7" t="n"/>
+      <c r="D7" s="7" t="n"/>
+      <c r="E7" s="6" t="n"/>
+      <c r="F7" s="7" t="n"/>
     </row>
     <row r="8" ht="50" customHeight="1">
       <c r="A8" s="2" t="inlineStr">
@@ -578,14 +712,8 @@
           <t>11:00 AM - 11:30 AM</t>
         </is>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>MU 434 - Music Composition
-3E
-Room 230</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="n"/>
+      <c r="D8" s="7" t="n"/>
+      <c r="F8" s="7" t="n"/>
     </row>
     <row r="9" ht="50" customHeight="1">
       <c r="A9" s="2" t="inlineStr">
@@ -593,8 +721,7 @@
           <t>11:30 AM - 12:00 PM</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
+      <c r="F9" s="7" t="n"/>
     </row>
     <row r="10" ht="50" customHeight="1">
       <c r="A10" s="2" t="inlineStr">
@@ -616,6 +743,38 @@
           <t>1:00 PM - 1:30 PM</t>
         </is>
       </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>A2 ITE 111 - Introduction to Computing
+1A
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="inlineStr">
+        <is>
+          <t>B2 ITE 111 - Introduction to Computing
+1B
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>B2 IS 213 - IT Infrastructure &amp; Network Technologies
+2B
+Room 208
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="F12" s="9" t="inlineStr">
+        <is>
+          <t>C2 IS 213 - IT Infrastructure &amp; Network Technologies
+2C
+Room 303
+Emp: 5</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="50" customHeight="1">
       <c r="A13" s="2" t="inlineStr">
@@ -623,13 +782,10 @@
           <t>1:30 PM - 2:00 PM</t>
         </is>
       </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>BC 308 - Business Communication
-2C
-Room 150</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n"/>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="8" t="n"/>
+      <c r="F13" s="9" t="n"/>
     </row>
     <row r="14" ht="50" customHeight="1">
       <c r="A14" s="2" t="inlineStr">
@@ -637,7 +793,10 @@
           <t>2:00 PM - 2:30 PM</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n"/>
+      <c r="C14" s="5" t="n"/>
+      <c r="D14" s="3" t="n"/>
+      <c r="E14" s="8" t="n"/>
+      <c r="F14" s="9" t="n"/>
     </row>
     <row r="15" ht="50" customHeight="1">
       <c r="A15" s="2" t="inlineStr">
@@ -645,6 +804,23 @@
           <t>2:30 PM - 3:00 PM</t>
         </is>
       </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>B2 IS 213 - IT Infrastructure &amp; Network Technologies
+2B
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="inlineStr">
+        <is>
+          <t>B1 ITE 111 - Introduction to Computing
+1B
+Room 208
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="F15" s="9" t="n"/>
     </row>
     <row r="16" ht="50" customHeight="1">
       <c r="A16" s="2" t="inlineStr">
@@ -652,11 +828,14 @@
           <t>3:00 PM - 3:30 PM</t>
         </is>
       </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>AR 206 - Art Studio
-2E
-Room 167</t>
+      <c r="B16" s="8" t="n"/>
+      <c r="D16" s="6" t="n"/>
+      <c r="F16" s="8" t="inlineStr">
+        <is>
+          <t>B2 IS 213 - IT Infrastructure &amp; Network Technologies
+2B
+Room 304
+Emp: 5</t>
         </is>
       </c>
     </row>
@@ -666,14 +845,9 @@
           <t>3:30 PM - 4:00 PM</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n"/>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>EN 322 - English
-2A
-Room 136</t>
-        </is>
-      </c>
+      <c r="B17" s="8" t="n"/>
+      <c r="D17" s="6" t="n"/>
+      <c r="F17" s="8" t="n"/>
     </row>
     <row r="18" ht="50" customHeight="1">
       <c r="A18" s="2" t="inlineStr">
@@ -681,8 +855,7 @@
           <t>4:00 PM - 4:30 PM</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n"/>
-      <c r="F18" s="2" t="n"/>
+      <c r="F18" s="8" t="n"/>
     </row>
     <row r="19" ht="50" customHeight="1">
       <c r="A19" s="2" t="inlineStr">
@@ -690,8 +863,7 @@
           <t>4:30 PM - 5:00 PM</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n"/>
-      <c r="F19" s="2" t="n"/>
+      <c r="F19" s="8" t="n"/>
     </row>
     <row r="20" ht="50" customHeight="1">
       <c r="A20" s="2" t="inlineStr">
@@ -706,6 +878,30 @@
           <t>5:30 PM - 6:00 PM</t>
         </is>
       </c>
+      <c r="B21" s="10" t="inlineStr">
+        <is>
+          <t>IS 412 - IS Strategy, Management &amp; Acquisition
+4A
+Room 303
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>C1 IS 213 - IT Infrastructure &amp; Network Technologies
+2C
+Room 208
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="F21" s="10" t="inlineStr">
+        <is>
+          <t>IS 412 - IS Strategy, Management &amp; Acquisition
+4A
+Room 305
+Emp: 5</t>
+        </is>
+      </c>
     </row>
     <row r="22" ht="50" customHeight="1">
       <c r="A22" s="2" t="inlineStr">
@@ -713,6 +909,9 @@
           <t>6:00 PM - 6:30 PM</t>
         </is>
       </c>
+      <c r="B22" s="10" t="n"/>
+      <c r="E22" s="4" t="n"/>
+      <c r="F22" s="10" t="n"/>
     </row>
     <row r="23" ht="50" customHeight="1">
       <c r="A23" s="2" t="inlineStr">
@@ -720,6 +919,9 @@
           <t>6:30 PM - 7:00 PM</t>
         </is>
       </c>
+      <c r="B23" s="10" t="n"/>
+      <c r="E23" s="4" t="n"/>
+      <c r="F23" s="10" t="n"/>
     </row>
     <row r="24" ht="50" customHeight="1">
       <c r="A24" s="2" t="inlineStr">
@@ -727,11 +929,28 @@
           <t>7:00 PM - 7:30 PM</t>
         </is>
       </c>
-      <c r="B24" s="2" t="inlineStr">
-        <is>
-          <t>MU 434 - Music Composition
-3E
-Room 233</t>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>C1 IS 213 - IT Infrastructure &amp; Network Technologies
+2C
+Room 310
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="D24" s="9" t="inlineStr">
+        <is>
+          <t>C2 IS 213 - IT Infrastructure &amp; Network Technologies
+2C
+Room 208
+Emp: 5</t>
+        </is>
+      </c>
+      <c r="E24" s="9" t="inlineStr">
+        <is>
+          <t>C2 IS 213 - IT Infrastructure &amp; Network Technologies
+2C
+Room 208
+Emp: 5</t>
         </is>
       </c>
     </row>
@@ -741,7 +960,9 @@
           <t>7:30 PM - 8:00 PM</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n"/>
+      <c r="B25" s="4" t="n"/>
+      <c r="D25" s="9" t="n"/>
+      <c r="E25" s="9" t="n"/>
     </row>
     <row r="26" ht="50" customHeight="1">
       <c r="A26" s="2" t="inlineStr">
@@ -749,7 +970,9 @@
           <t>8:00 PM - 8:30 PM</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n"/>
+      <c r="B26" s="4" t="n"/>
+      <c r="D26" s="9" t="n"/>
+      <c r="E26" s="9" t="n"/>
     </row>
     <row r="27" ht="50" customHeight="1">
       <c r="A27" s="2" t="inlineStr">
@@ -759,15 +982,28 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="B8:B9"/>
+  <mergeCells count="21">
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="F16:F19"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="F6:F9"/>
     <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="D24:D26"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F21:F23"/>
+    <mergeCell ref="E2:E4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
